--- a/data/trans_camb/P5_6-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_6-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-2,69</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 1,45</t>
+          <t>-25,3; 1,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 3,44</t>
+          <t>-3,79; 4,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 1,66</t>
+          <t>-12,02; 0,77</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,21%</t>
+          <t>-6,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,3%</t>
+          <t>-2,8%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 1,51</t>
+          <t>-26,45; 1,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 3,72</t>
+          <t>-3,9; 4,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 1,76</t>
+          <t>-12,61; 0,81</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-0,49</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 3,59</t>
+          <t>-3,39; 2,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,34</t>
+          <t>-4,86; 3,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,1</t>
+          <t>-3,02; 2,24</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>-0,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,47%</t>
+          <t>-0,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>-0,5%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 3,75</t>
+          <t>-3,46; 3,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 2,43</t>
+          <t>-4,92; 3,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 2,18</t>
+          <t>-3,04; 2,31</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-0,31</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 5,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 8,08</t>
+          <t>-16,41; 15,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 5,07</t>
+          <t>-9,27; 8,47</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,64%</t>
+          <t>-0,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,97%</t>
+          <t>-0,33%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 5,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 9,72</t>
+          <t>-18,26; 19,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 5,54</t>
+          <t>-9,68; 9,75</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-1,55</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 1,26</t>
+          <t>-13,76; 0,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,01</t>
+          <t>-3,35; 3,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 0,9</t>
+          <t>-6,55; 0,63</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>-3,12%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>-0,25%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>-1,61%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 1,34</t>
+          <t>-14,07; 0,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,14</t>
+          <t>-3,49; 3,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,95</t>
+          <t>-6,76; 0,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_6-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_6-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-6,3</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,69</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-4.994135843163461</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.669880319109295</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.918076826005888</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-25,3; 1,26</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 4,43</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-12,02; 0,77</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-21.6557968930742</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.196269808387664</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.714634768818879</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-6,51%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,37%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,8%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.27593329685236</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.725022995859602</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.116212558319428</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-26,45; 1,29</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 4,76</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,61; 0,81</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.05165662440924482</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.00699618666726651</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.0199438179217</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,85</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2193562344543794</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.03228226466608372</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1006637683648277</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,39; 2,95</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,86; 3,3</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,02; 2,24</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.01284717477044217</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.05086223796511615</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.0114800162961723</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,04%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,88%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,5%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.2236900889403204</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.8070909666051951</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.2935675134616345</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,46; 3,08</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,92; 3,48</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,04; 2,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.400764414902942</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.782659949713099</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.748754947761554</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.307803385900038</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.247421161364872</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.278762703489037</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-16,41; 15,47</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-9,27; 8,47</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.002272859499620408</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.008322178704569102</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.003006338511817244</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,54%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,33%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.02451932913537368</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.04892213793941598</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.02802340730000386</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-18,26; 19,96</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-9,68; 9,75</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.03439329412548711</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.03429778572791006</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.02365092009989843</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,201 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-3,05</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,55</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-3.883174050843174</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-2.588266147381091</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-13,76; 0,69</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,35; 3,02</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-6,55; 0,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr"/>
+      <c r="D17" s="5" t="n">
+        <v>-23.08389696243559</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-14.18696560601171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-3,12%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,25%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-1,61%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+      <c r="D18" s="5" t="n">
+        <v>12.91000137966297</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>7.28906142563429</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-14,07; 0,68</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-3,49; 3,23</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-6,76; 0,65</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.04592910912365346</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.02801889067162022</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="n">
+        <v>-0.25631232940938</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1516752381192594</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="n">
+        <v>0.1713551569102066</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.08091498471385852</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.305316895320708</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.4442754959527284</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-1.308548172279189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-10.9575694374396</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.632872002284179</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.411857610853484</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.8571176114626847</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.928841359427671</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.7431560777452029</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.02358289398509344</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.004667745996064507</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.01357733173448126</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.111174800553718</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.03752100573063549</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.05577323671944161</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.008781933953970865</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.03094707683794894</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.007863347549437585</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +977,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
